--- a/0330corona_kanjya.xlsx
+++ b/0330corona_kanjya.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="223">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -2015,6 +2015,9 @@
   <si>
     <t>○</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特定できず</t>
   </si>
 </sst>
 </file>
@@ -3117,8 +3120,8 @@
   </sheetPr>
   <dimension ref="B1:Y147"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A96" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I99" sqref="I99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7474,7 +7477,7 @@
         <v>46</v>
       </c>
       <c r="K96" s="82" t="s">
-        <v>179</v>
+        <v>222</v>
       </c>
       <c r="L96" s="60"/>
       <c r="M96" s="60"/>
@@ -9691,7 +9694,7 @@
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="8" scale="95" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="94" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="117" max="20" man="1"/>
   </rowBreaks>
